--- a/biology/Zoologie/Chien_de_protection_du_bétail/Chien_de_protection_du_bétail.xlsx
+++ b/biology/Zoologie/Chien_de_protection_du_bétail/Chien_de_protection_du_bétail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_de_protection_du_b%C3%A9tail</t>
+          <t>Chien_de_protection_du_bétail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien de protection du bétail, chien de garde du bétail ou gardien de troupeaux est un type de chien élevé dans le but de protéger le bétail des prédateurs.
 Ces chiens restent avec le groupe d'animaux qu'ils protègent en tant que membre à plein temps du troupeau. Leur capacité à garder leur troupeau est principalement instinctive, car le chien est lié au troupeau dès son plus jeune âge.
